--- a/Symphony/2020/June/All Details/30.06.2020/MC Bank Statement June 2020.xlsx
+++ b/Symphony/2020/June/All Details/30.06.2020/MC Bank Statement June 2020.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2020\June\All Details\30.06.2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="June 2020" sheetId="7" r:id="rId1"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -226,9 +231,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1061,14 +1066,14 @@
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1603,7 +1608,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1620,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1638,14 +1643,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1705,7 +1710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1737,9 +1742,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1771,6 +1777,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1946,7 +1953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -3179,14 +3186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AL222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
